--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zver\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E98148F-C793-4F10-8350-2B000EE21A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E116E0-7160-4934-B72F-60E9AABFF90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>Номер</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Не запускался</t>
-  </si>
-  <si>
-    <t>Филтры</t>
   </si>
   <si>
     <t>Фильтры</t>
@@ -254,12 +251,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,7 +617,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -620,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,21 +665,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -676,10 +686,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -966,7 +979,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,16 +996,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
@@ -1002,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>6</v>
@@ -1012,26 +1025,26 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>12</v>
@@ -1041,26 +1054,26 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -1070,26 +1083,26 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>12</v>
@@ -1099,26 +1112,26 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
@@ -1128,55 +1141,55 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>12</v>
@@ -1186,26 +1199,26 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>12</v>
@@ -1215,26 +1228,26 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>12</v>
@@ -1244,26 +1257,26 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>12</v>
@@ -1273,26 +1286,26 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>12</v>
